--- a/試験項目書/結合試験項目書.xlsx
+++ b/試験項目書/結合試験項目書.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8435C5F-0F84-47B7-938E-88CE4C0D3ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EDAED-1266-4C27-B03F-43AF45E39B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目表（没サンプル）" sheetId="1" r:id="rId1"/>
     <sheet name="結合試験項目表" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>作成</t>
   </si>
@@ -458,6 +459,48 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>項番１</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番２</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐藤保明</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤスアキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番３</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番４</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -466,7 +509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -505,6 +548,18 @@
       <sz val="11"/>
       <name val="MS PGothic"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -655,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -675,35 +730,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,9 +744,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -741,14 +770,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,6 +827,451 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF195B4-44F7-404B-99DA-75DBF6F70D57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="857250"/>
+          <a:ext cx="4248150" cy="1590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>580495</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>75994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E55A875-144A-4D0C-9058-C7E630E72546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3124200"/>
+          <a:ext cx="4238095" cy="1647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>37896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659651C1-B313-4A29-8D5C-8727B9446AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5372100"/>
+          <a:ext cx="4238625" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BD8C90-14B6-42E1-A08F-F59BD0243540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="7667625"/>
+          <a:ext cx="4267200" cy="1657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C1949E-6187-4F5E-82EB-A46DC0331DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="857250"/>
+          <a:ext cx="2076450" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C70C299-2071-46B1-8122-9F59FA0C326B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="3181351"/>
+          <a:ext cx="2181225" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A32BA40-A32F-4153-81BE-41B2657BF8F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5419725"/>
+          <a:ext cx="2124075" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80BCF78-FFC6-452B-969B-F9CE9CECED4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7743825"/>
+          <a:ext cx="2190749" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1150,44 +1657,44 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="11" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
@@ -10484,7 +10991,7 @@
   <dimension ref="B2:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10492,7 +10999,7 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="15" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" customWidth="1"/>
@@ -10505,17 +11012,17 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="9">
         <v>43804</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10524,56 +11031,56 @@
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="27"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="5" t="s">
         <v>33</v>
       </c>
@@ -10596,157 +11103,181 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="35" customFormat="1" ht="72.75" customHeight="1">
-      <c r="B7" s="30">
+    <row r="7" spans="2:17" s="21" customFormat="1" ht="72.75" customHeight="1">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="42">
+        <v>43804</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="2:17" ht="66" customHeight="1">
-      <c r="B8" s="30">
+      <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="22" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="N8" s="42">
+        <v>43804</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="2:17" ht="54.75" customHeight="1">
-      <c r="B9" s="30">
+      <c r="B9" s="16">
         <v>3</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="25" t="s">
+      <c r="I9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="22" t="s">
         <v>56</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="N9" s="42">
+        <v>43804</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="2:17" ht="54.75" customHeight="1">
-      <c r="B10" s="30">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="36" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="25" t="s">
+      <c r="I10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="22" t="s">
         <v>56</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="N10" s="42">
+        <v>43804</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" customHeight="1">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="26"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -10761,10 +11292,10 @@
     <row r="12" spans="2:17" ht="15.75" customHeight="1">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -10779,10 +11310,10 @@
     <row r="13" spans="2:17" ht="15.75" customHeight="1">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="27"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -10797,10 +11328,10 @@
     <row r="14" spans="2:17" ht="15.75" customHeight="1">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="27"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -10815,10 +11346,10 @@
     <row r="15" spans="2:17" ht="15.75" customHeight="1">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="27"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -10833,10 +11364,10 @@
     <row r="16" spans="2:17" ht="15.75" customHeight="1">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="27"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -10851,10 +11382,10 @@
     <row r="17" spans="2:17" ht="15.75" customHeight="1">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -10869,10 +11400,10 @@
     <row r="18" spans="2:17" ht="15.75" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="27"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -10887,10 +11418,10 @@
     <row r="19" spans="2:17" ht="15.75" customHeight="1">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="27"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -10905,10 +11436,10 @@
     <row r="20" spans="2:17" ht="15.75" customHeight="1">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="27"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -10923,10 +11454,10 @@
     <row r="21" spans="2:17" ht="15.75" customHeight="1">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="27"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -10941,10 +11472,10 @@
     <row r="22" spans="2:17" ht="15.75" customHeight="1">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="27"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -10959,10 +11490,10 @@
     <row r="23" spans="2:17" ht="15.75" customHeight="1">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="27"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -10977,10 +11508,10 @@
     <row r="24" spans="2:17" ht="15.75" customHeight="1">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="27"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -10995,10 +11526,10 @@
     <row r="25" spans="2:17" ht="15.75" customHeight="1">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="27"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -11013,10 +11544,10 @@
     <row r="26" spans="2:17" ht="15.75" customHeight="1">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="27"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -11030,12 +11561,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F21:G21"/>
@@ -11046,23 +11586,59 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B6B31C-02E9-4741-AF18-9BF80D64A4B1}">
+  <dimension ref="B3:B47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="40"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/試験項目書/結合試験項目書.xlsx
+++ b/試験項目書/結合試験項目書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EDAED-1266-4C27-B03F-43AF45E39B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691CD5E3-B52C-4912-937E-511FBB8D401E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
   <si>
     <t>作成</t>
   </si>
@@ -501,6 +501,30 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ログアウトボタン押下時】</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン時</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -561,6 +585,23 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -576,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -706,11 +747,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,6 +823,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,19 +839,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,11 +861,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,7 +1657,9 @@
   </sheetPr>
   <dimension ref="B1:O1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1657,44 +1740,44 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="24" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
@@ -10990,8 +11073,8 @@
   </sheetPr>
   <dimension ref="B2:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11018,10 +11101,10 @@
       <c r="D2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="10" t="s">
         <v>48</v>
       </c>
@@ -11034,53 +11117,53 @@
       <c r="D3" s="14"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="24" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="29"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="5" t="s">
         <v>33</v>
       </c>
@@ -11116,10 +11199,10 @@
       <c r="E7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="12" t="s">
         <v>53</v>
       </c>
@@ -11134,13 +11217,13 @@
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="20"/>
-      <c r="N7" s="42">
+      <c r="N7" s="26">
         <v>43804</v>
       </c>
       <c r="O7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="25" t="s">
         <v>66</v>
       </c>
       <c r="Q7" s="16"/>
@@ -11158,10 +11241,10 @@
       <c r="E8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="12" t="s">
         <v>61</v>
       </c>
@@ -11176,7 +11259,7 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="42">
+      <c r="N8" s="26">
         <v>43804</v>
       </c>
       <c r="O8" s="22" t="s">
@@ -11200,10 +11283,10 @@
       <c r="E9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="22" t="s">
         <v>53</v>
       </c>
@@ -11218,7 +11301,7 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="42">
+      <c r="N9" s="26">
         <v>43804</v>
       </c>
       <c r="O9" s="22" t="s">
@@ -11242,10 +11325,10 @@
       <c r="E10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="22" t="s">
         <v>61</v>
       </c>
@@ -11260,313 +11343,409 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="42">
+      <c r="N10" s="26">
         <v>43804</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="41" t="s">
+      <c r="P10" s="25" t="s">
         <v>66</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43810</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="B17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="54.75" customHeight="1">
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="26">
+        <v>43804</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="2:17" ht="54.75" customHeight="1">
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="26">
+        <v>43804</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="22"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+    <row r="21" spans="2:17" ht="54.75" customHeight="1">
+      <c r="B21" s="16">
+        <v>3</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="N21" s="26">
+        <v>43804</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="22"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+    <row r="22" spans="2:17" ht="54.75" customHeight="1">
+      <c r="B22" s="16">
+        <v>4</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="N22" s="26">
+        <v>43804</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="25"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
     </row>
     <row r="24" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
     </row>
     <row r="25" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F12:G12"/>
+  <mergeCells count="39">
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F9:G9"/>
@@ -11576,22 +11755,12 @@
     <mergeCell ref="F5:G6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11602,37 +11771,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B6B31C-02E9-4741-AF18-9BF80D64A4B1}">
   <dimension ref="B3:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:2">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="40"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="24" t="s">
         <v>69</v>
       </c>
     </row>

--- a/試験項目書/結合試験項目書.xlsx
+++ b/試験項目書/結合試験項目書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8AB540-8596-49C3-BF1B-77C48252209C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3627B243-4117-4303-9197-BB0EF6EE0139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合試験項目表" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
   <si>
     <t>作成</t>
   </si>
@@ -621,12 +621,126 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>決済</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラッピングの有無について</t>
+    <rPh sb="6" eb="8">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラッピング：無と表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラッピング有と表示される</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンを開き、選択後、変更ボタンを押下する</t>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>センタクゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済時</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済時</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>４－１.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストスコープにラッピングの値を取得出来ているか</t>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストスコープに4.１.での取得情報を保存し、決済確定画面に遷移する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コマンドプロンプトを使用し、DBのWrappingに値が取得されているか確認する</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -732,6 +846,21 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -891,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -992,26 +1121,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,22 +1147,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2245,10 +2397,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:Q26"/>
+  <dimension ref="B2:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2275,10 +2427,10 @@
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
@@ -2291,53 +2443,53 @@
       <c r="D3" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="56" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="58" t="s">
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2373,10 +2525,10 @@
       <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="7" t="s">
         <v>27</v>
       </c>
@@ -2415,10 +2567,10 @@
       <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2457,10 +2609,10 @@
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="17" t="s">
         <v>27</v>
       </c>
@@ -2499,10 +2651,10 @@
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="17" t="s">
         <v>35</v>
       </c>
@@ -2533,8 +2685,8 @@
       <c r="C11" s="22"/>
       <c r="D11" s="24"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -2551,8 +2703,8 @@
       <c r="C12" s="23"/>
       <c r="D12" s="25"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -2569,8 +2721,8 @@
       <c r="C13" s="23"/>
       <c r="D13" s="25"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -2593,10 +2745,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="5" t="s">
         <v>44</v>
       </c>
@@ -2617,8 +2769,8 @@
       <c r="C15" s="2"/>
       <c r="D15" s="9"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -2635,8 +2787,8 @@
       <c r="C16" s="23"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -2649,53 +2801,53 @@
       <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="56" t="s">
+      <c r="G17" s="48"/>
+      <c r="H17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="59"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="58" t="s">
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="43"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="45"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2731,10 +2883,10 @@
       <c r="E19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="30" t="s">
         <v>63</v>
       </c>
@@ -2769,10 +2921,10 @@
       <c r="E20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="31" t="s">
         <v>63</v>
       </c>
@@ -2807,10 +2959,10 @@
       <c r="E21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="31" t="s">
         <v>63</v>
       </c>
@@ -2849,10 +3001,10 @@
       <c r="E22" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="55"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="17" t="s">
         <v>47</v>
       </c>
@@ -2883,8 +3035,8 @@
       <c r="C23" s="23"/>
       <c r="D23" s="25"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -2901,8 +3053,8 @@
       <c r="C24" s="23"/>
       <c r="D24" s="25"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -2919,8 +3071,8 @@
       <c r="C25" s="23"/>
       <c r="D25" s="25"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -2933,50 +3085,251 @@
       <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43823</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="45"/>
+      <c r="H26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B29" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="48"/>
+      <c r="H29" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="45"/>
+    </row>
+    <row r="30" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="54.75" customHeight="1">
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="64"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="21">
+        <v>43823</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="11"/>
+    </row>
+    <row r="32" spans="2:17" ht="54.75" customHeight="1">
+      <c r="B32" s="11">
+        <v>2</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="70"/>
+      <c r="H32" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="21">
+        <v>43823</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="2:17" ht="54.75" customHeight="1">
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="70"/>
+      <c r="H33" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="21">
+        <v>43823</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
+  <mergeCells count="53">
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:G30"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F2:G2"/>
@@ -2991,6 +3344,31 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2999,19 +3377,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B6B31C-02E9-4741-AF18-9BF80D64A4B1}">
-  <dimension ref="B3:C111"/>
+  <dimension ref="B3:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T96" sqref="T96"/>
+    <sheetView topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:3" ht="18.75">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="19"/>
@@ -3037,10 +3415,10 @@
       </c>
     </row>
     <row r="64" spans="2:3" ht="18.75">
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="61"/>
+      <c r="C64" s="62"/>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="37" t="s">
@@ -3062,10 +3440,24 @@
         <v>68</v>
       </c>
     </row>
+    <row r="122" spans="2:8" ht="18.75">
+      <c r="B122" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="63"/>
+      <c r="E122" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="F122" s="69"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="69"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="E122:H122"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/試験項目書/結合試験項目書.xlsx
+++ b/試験項目書/結合試験項目書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3627B243-4117-4303-9197-BB0EF6EE0139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED319787-1BD9-49CF-B4F4-9BF9957D979E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合試験項目表" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,24 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2097CDDA-61DC-495B-9014-1239B78DF318}</author>
+  </authors>
+  <commentList>
+    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{2097CDDA-61DC-495B-9014-1239B78DF318}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    結合試験はブラックボックスで良いので、中身まで見なくて大丈夫です。今回であれば、決済画面に遷移し、変更ボタン押下の直前に選択した、「有」または「無」の表示がされていればOKです。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,7 +758,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -861,6 +879,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1122,6 +1147,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1131,6 +1175,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1140,16 +1185,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1167,33 +1202,23 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2097,6 +2122,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="office365 user9" id="{5FAECB9E-9724-46E1-B931-FF3B6DFCDAF0}" userId="office365 user9" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2392,15 +2423,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J33" dT="2019-12-24T02:08:04.47" personId="{5FAECB9E-9724-46E1-B931-FF3B6DFCDAF0}" id="{2097CDDA-61DC-495B-9014-1239B78DF318}">
+    <text>結合試験はブラックボックスで良いので、中身まで見なくて大丈夫です。今回であれば、決済画面に遷移し、変更ボタン押下の直前に選択した、「有」または「無」の表示がされていればOKです。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2427,10 +2466,10 @@
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="45"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
@@ -2443,53 +2482,53 @@
       <c r="D3" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="41" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="43" t="s">
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="45"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2525,10 +2564,10 @@
       <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="61"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="7" t="s">
         <v>27</v>
       </c>
@@ -2567,10 +2606,10 @@
       <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2609,10 +2648,10 @@
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="17" t="s">
         <v>27</v>
       </c>
@@ -2651,10 +2690,10 @@
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="17" t="s">
         <v>35</v>
       </c>
@@ -2685,8 +2724,8 @@
       <c r="C11" s="22"/>
       <c r="D11" s="24"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -2703,8 +2742,8 @@
       <c r="C12" s="23"/>
       <c r="D12" s="25"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -2721,8 +2760,8 @@
       <c r="C13" s="23"/>
       <c r="D13" s="25"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -2745,10 +2784,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="5" t="s">
         <v>44</v>
       </c>
@@ -2769,8 +2808,8 @@
       <c r="C15" s="2"/>
       <c r="D15" s="9"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -2787,8 +2826,8 @@
       <c r="C16" s="23"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -2801,53 +2840,53 @@
       <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="41" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="43" t="s">
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="45"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="52"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2883,10 +2922,10 @@
       <c r="E19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="30" t="s">
         <v>63</v>
       </c>
@@ -2921,10 +2960,10 @@
       <c r="E20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="55"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="31" t="s">
         <v>63</v>
       </c>
@@ -2959,10 +2998,10 @@
       <c r="E21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="53"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="31" t="s">
         <v>63</v>
       </c>
@@ -3001,10 +3040,10 @@
       <c r="E22" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="17" t="s">
         <v>47</v>
       </c>
@@ -3035,8 +3074,8 @@
       <c r="C23" s="23"/>
       <c r="D23" s="25"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -3053,8 +3092,8 @@
       <c r="C24" s="23"/>
       <c r="D24" s="25"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -3071,8 +3110,8 @@
       <c r="C25" s="23"/>
       <c r="D25" s="25"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -3095,10 +3134,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="40"/>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="5" t="s">
         <v>69</v>
       </c>
@@ -3121,8 +3160,8 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
@@ -3135,53 +3174,53 @@
       <c r="Q27" s="40"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="41" t="s">
+      <c r="G29" s="56"/>
+      <c r="H29" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="43" t="s">
+      <c r="K29" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="43" t="s">
+      <c r="L29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="45"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="52"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
       <c r="K30" s="3" t="s">
         <v>17</v>
       </c>
@@ -3217,21 +3256,21 @@
       <c r="E31" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="67"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="65" t="s">
+      <c r="J31" s="42" t="s">
         <v>73</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="64"/>
+      <c r="L31" s="41"/>
       <c r="M31" s="27"/>
       <c r="N31" s="21">
         <v>43823</v>
@@ -3251,17 +3290,17 @@
       <c r="E32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="70"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I32" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="42" t="s">
         <v>73</v>
       </c>
       <c r="K32" s="36" t="s">
@@ -3289,17 +3328,17 @@
         <v>76</v>
       </c>
       <c r="E33" s="34"/>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="70"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I33" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="43" t="s">
         <v>80</v>
       </c>
       <c r="K33" s="36"/>
@@ -3316,20 +3355,31 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F2:G2"/>
@@ -3344,34 +3394,25 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3386,10 +3427,10 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:3" ht="18.75">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="19"/>
@@ -3415,10 +3456,10 @@
       </c>
     </row>
     <row r="64" spans="2:3" ht="18.75">
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="62"/>
+      <c r="C64" s="68"/>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="37" t="s">
@@ -3441,16 +3482,16 @@
       </c>
     </row>
     <row r="122" spans="2:8" ht="18.75">
-      <c r="B122" s="63" t="s">
+      <c r="B122" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C122" s="63"/>
-      <c r="E122" s="68" t="s">
+      <c r="C122" s="69"/>
+      <c r="E122" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F122" s="69"/>
-      <c r="G122" s="69"/>
-      <c r="H122" s="69"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/試験項目書/結合試験項目書.xlsx
+++ b/試験項目書/結合試験項目書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\試験項目書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED319787-1BD9-49CF-B4F4-9BF9957D979E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1228AAE-6869-42FD-8E28-13B7CC9CB146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合試験項目表" sheetId="2" r:id="rId1"/>
@@ -738,17 +738,38 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コマンドプロンプトを使用し、DBのWrappingに値が取得されているか確認する</t>
+    <t>商品ページに遷移後、決済画面に戻った際選択したラッピング有が　　　　　　　保持されているか確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
     <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -758,7 +779,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -879,13 +900,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1154,18 +1168,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,7 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1185,10 +1186,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1202,11 +1213,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2438,8 +2452,8 @@
   </sheetPr>
   <dimension ref="B2:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2466,10 +2480,10 @@
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="52"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
@@ -2482,53 +2496,53 @@
       <c r="D3" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="50" t="s">
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2564,10 +2578,10 @@
       <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="7" t="s">
         <v>27</v>
       </c>
@@ -2606,10 +2620,10 @@
       <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2648,10 +2662,10 @@
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="62"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="17" t="s">
         <v>27</v>
       </c>
@@ -2690,10 +2704,10 @@
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="62"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="17" t="s">
         <v>35</v>
       </c>
@@ -2724,8 +2738,8 @@
       <c r="C11" s="22"/>
       <c r="D11" s="24"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -2742,8 +2756,8 @@
       <c r="C12" s="23"/>
       <c r="D12" s="25"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -2760,8 +2774,8 @@
       <c r="C13" s="23"/>
       <c r="D13" s="25"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -2784,10 +2798,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="5" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +2822,8 @@
       <c r="C15" s="2"/>
       <c r="D15" s="9"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -2826,8 +2840,8 @@
       <c r="C16" s="23"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -2840,53 +2854,53 @@
       <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="51"/>
+      <c r="H17" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="50" t="s">
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="52"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2922,7 +2936,7 @@
       <c r="E19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="58" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="59"/>
@@ -2960,7 +2974,7 @@
       <c r="E20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="58" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="59"/>
@@ -2998,10 +3012,10 @@
       <c r="E21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="67"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="31" t="s">
         <v>63</v>
       </c>
@@ -3040,10 +3054,10 @@
       <c r="E22" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="67"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="17" t="s">
         <v>47</v>
       </c>
@@ -3074,8 +3088,8 @@
       <c r="C23" s="23"/>
       <c r="D23" s="25"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -3092,8 +3106,8 @@
       <c r="C24" s="23"/>
       <c r="D24" s="25"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -3110,8 +3124,8 @@
       <c r="C25" s="23"/>
       <c r="D25" s="25"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -3134,10 +3148,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="40"/>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="5" t="s">
         <v>69</v>
       </c>
@@ -3160,8 +3174,8 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
@@ -3174,53 +3188,53 @@
       <c r="Q27" s="40"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="48" t="s">
+      <c r="G29" s="51"/>
+      <c r="H29" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="50" t="s">
+      <c r="L29" s="47"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="52"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
       <c r="K30" s="3" t="s">
         <v>17</v>
       </c>
@@ -3256,8 +3270,8 @@
       <c r="E31" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="31" t="s">
         <v>75</v>
       </c>
@@ -3290,10 +3304,10 @@
       <c r="E32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="47"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="31" t="s">
         <v>75</v>
       </c>
@@ -3328,10 +3342,10 @@
         <v>76</v>
       </c>
       <c r="E33" s="34"/>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="31" t="s">
         <v>75</v>
       </c>
@@ -3355,31 +3369,20 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:G30"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F2:G2"/>
@@ -3394,20 +3397,31 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/試験項目書/結合試験項目書.xlsx
+++ b/試験項目書/結合試験項目書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1228AAE-6869-42FD-8E28-13B7CC9CB146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2678700F-6758-4011-B554-50ED2FD08B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合試験項目表" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
   <si>
     <t>作成</t>
   </si>
@@ -774,12 +774,37 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>項番１</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番２</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番３</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -900,6 +925,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1059,7 +1091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1168,6 +1200,18 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,6 +1221,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1186,20 +1231,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1213,14 +1248,11 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,12 +1266,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD243"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2133,6 +2171,982 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>135142</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>66488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE0D879-5AEE-4B89-A2CA-FB7D3BF02E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="613833" y="20447000"/>
+          <a:ext cx="2590476" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="グラフィックス 18" descr="戻る">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6723F8DE-7F6A-4355-9113-F0F449A1671D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="17923367">
+          <a:off x="2180166" y="20002500"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>135142</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>71785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B209BE0-E6DD-42B6-A4C6-67673B0A7AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="613833" y="22912916"/>
+          <a:ext cx="2590476" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>328083</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14816</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>99484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="グラフィックス 21" descr="戻る">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3741F1A6-4AAB-42D5-B804-30CF581D9097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="17923367">
+          <a:off x="2169583" y="22362584"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>451547</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>30095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C06D40-7153-4930-890B-B7BE2E54D71E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4931833" y="20499916"/>
+          <a:ext cx="2885714" cy="4771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>21168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="吹き出し: 上矢印 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641CB361-1EA4-4202-9A6B-7C67A5788BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5947834" y="21103168"/>
+          <a:ext cx="1471082" cy="1746249"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13833</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>146863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2A8A18-C7B3-41F6-B9E7-EEBADDE1EC50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032500" y="22066250"/>
+          <a:ext cx="1347333" cy="591363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>301075</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>103633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矢印: V 字型 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B9CD8A-2875-4E8A-866F-8C0EF9D2BD73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7916334" y="22637751"/>
+          <a:ext cx="978408" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>102296</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>146512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60DF921-B522-4377-83BF-8A09C052E031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15017749" y="20616333"/>
+          <a:ext cx="2885714" cy="4771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>116418</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>338668</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="吹き出し: 上矢印 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA60FF0A-041A-43B1-9017-7383D6C9BCA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16076085" y="21177251"/>
+          <a:ext cx="1449916" cy="1619249"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画面遷移後</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25531</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DD0169-6942-420A-B39A-C8B94997674E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9233031" y="20616333"/>
+          <a:ext cx="4239553" cy="4751918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47075</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>18965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矢印: V 字型 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D07B34-B859-4C79-A714-D9C348473833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13800667" y="22711833"/>
+          <a:ext cx="978408" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>560917</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>10586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>131236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="グラフィックス 44" descr="挙手">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3ED0B5E-071D-4D6F-A4F5-090A2182F1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="20798691">
+          <a:off x="9768417" y="20933836"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>465666</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="吹き出し: 四角形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDFDE02-3798-4658-B122-7D210D56F6AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9673166" y="22193251"/>
+          <a:ext cx="2032001" cy="963082"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20241"/>
+            <a:gd name="adj2" fmla="val -72825"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>別のショッピング画面に　遷移後、再度決済画面に　戻る作業を行う。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>370416</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>243417</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="吹き出し: 四角形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B11275A-638C-40E3-8C93-6268A9C22F2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15716249" y="22955250"/>
+          <a:ext cx="1714501" cy="613833"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20241"/>
+            <a:gd name="adj2" fmla="val -72825"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ラッピング有が画面に　　　保持されている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>148165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="吹き出し: 四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8F93C1-E486-4E08-A48B-ABD706670723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5736167" y="23008165"/>
+          <a:ext cx="1280583" cy="645585"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20241"/>
+            <a:gd name="adj2" fmla="val -72825"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ラッピング有を　　選択する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2452,8 +3466,8 @@
   </sheetPr>
   <dimension ref="B2:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2480,10 +3494,10 @@
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
@@ -2496,53 +3510,53 @@
       <c r="D3" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="44" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="46" t="s">
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2578,10 +3592,10 @@
       <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="7" t="s">
         <v>27</v>
       </c>
@@ -2620,10 +3634,10 @@
       <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2662,10 +3676,10 @@
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="61"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="17" t="s">
         <v>27</v>
       </c>
@@ -2704,10 +3718,10 @@
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="61"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="17" t="s">
         <v>35</v>
       </c>
@@ -2738,8 +3752,8 @@
       <c r="C11" s="22"/>
       <c r="D11" s="24"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -2756,8 +3770,8 @@
       <c r="C12" s="23"/>
       <c r="D12" s="25"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -2774,8 +3788,8 @@
       <c r="C13" s="23"/>
       <c r="D13" s="25"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -2798,10 +3812,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="5" t="s">
         <v>44</v>
       </c>
@@ -2822,8 +3836,8 @@
       <c r="C15" s="2"/>
       <c r="D15" s="9"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -2840,8 +3854,8 @@
       <c r="C16" s="23"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -2854,53 +3868,53 @@
       <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="44" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="46" t="s">
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="52"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2936,7 +3950,7 @@
       <c r="E19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="46" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="59"/>
@@ -2974,7 +3988,7 @@
       <c r="E20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="46" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="59"/>
@@ -3012,10 +4026,10 @@
       <c r="E21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="57"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="31" t="s">
         <v>63</v>
       </c>
@@ -3054,10 +4068,10 @@
       <c r="E22" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="57"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="17" t="s">
         <v>47</v>
       </c>
@@ -3088,8 +4102,8 @@
       <c r="C23" s="23"/>
       <c r="D23" s="25"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -3106,8 +4120,8 @@
       <c r="C24" s="23"/>
       <c r="D24" s="25"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -3124,8 +4138,8 @@
       <c r="C25" s="23"/>
       <c r="D25" s="25"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -3148,10 +4162,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="40"/>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="5" t="s">
         <v>69</v>
       </c>
@@ -3174,8 +4188,8 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
@@ -3188,53 +4202,53 @@
       <c r="Q27" s="40"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="44" t="s">
+      <c r="G29" s="56"/>
+      <c r="H29" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="44" t="s">
+      <c r="J29" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="46" t="s">
+      <c r="K29" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="47"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="46" t="s">
+      <c r="L29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="52"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
       <c r="K30" s="3" t="s">
         <v>17</v>
       </c>
@@ -3270,8 +4284,8 @@
       <c r="E31" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="31" t="s">
         <v>75</v>
       </c>
@@ -3292,7 +4306,9 @@
       <c r="O31" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P31" s="17"/>
+      <c r="P31" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="2:17" ht="54.75" customHeight="1">
@@ -3304,10 +4320,10 @@
       <c r="E32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="67"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="31" t="s">
         <v>75</v>
       </c>
@@ -3328,7 +4344,9 @@
       <c r="O32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P32" s="17"/>
+      <c r="P32" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="2:17" ht="54.75" customHeight="1">
@@ -3342,10 +4360,10 @@
         <v>76</v>
       </c>
       <c r="E33" s="34"/>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="67"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="31" t="s">
         <v>75</v>
       </c>
@@ -3364,25 +4382,38 @@
       <c r="O33" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P33" s="17"/>
+      <c r="P33" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="Q33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F2:G2"/>
@@ -3397,31 +4428,20 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3432,10 +4452,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B6B31C-02E9-4741-AF18-9BF80D64A4B1}">
-  <dimension ref="B3:H122"/>
+  <dimension ref="B3:K156"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U122" sqref="U122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3495,7 +4515,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="18.75">
+    <row r="122" spans="2:11" ht="18.75">
       <c r="B122" s="69" t="s">
         <v>22</v>
       </c>
@@ -3506,6 +4526,22 @@
       <c r="F122" s="71"/>
       <c r="G122" s="71"/>
       <c r="H122" s="71"/>
+    </row>
+    <row r="126" spans="2:11" ht="15">
+      <c r="B126" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="K126" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="15">
+      <c r="B141" s="72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/試験項目書/結合試験項目書.xlsx
+++ b/試験項目書/結合試験項目書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2678700F-6758-4011-B554-50ED2FD08B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB43CF-C422-45F0-AE22-9E34BE8DABFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合試験項目表" sheetId="2" r:id="rId1"/>
@@ -32,6 +32,24 @@
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
     結合試験はブラックボックスで良いので、中身まで見なくて大丈夫です。今回であれば、決済画面に遷移し、変更ボタン押下の直前に選択した、「有」または「無」の表示がされていればOKです。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AE9C7EB7-C115-4901-B05A-20D0110F68C7}</author>
+  </authors>
+  <commentList>
+    <comment ref="P160" authorId="0" shapeId="0" xr:uid="{AE9C7EB7-C115-4901-B05A-20D0110F68C7}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    「別のショッピング画面」とは何でしょうか。</t>
       </text>
     </comment>
   </commentList>
@@ -804,7 +822,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -930,6 +948,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1200,18 +1225,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,7 +1235,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1231,10 +1244,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1248,11 +1271,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,7 +1292,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3459,6 +3484,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P160" dT="2019-12-24T03:48:20.15" personId="{5FAECB9E-9724-46E1-B931-FF3B6DFCDAF0}" id="{AE9C7EB7-C115-4901-B05A-20D0110F68C7}">
+    <text>「別のショッピング画面」とは何でしょうか。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -3494,10 +3527,10 @@
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="52"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
@@ -3510,53 +3543,53 @@
       <c r="D3" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="50" t="s">
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
@@ -3770,8 +3803,8 @@
       <c r="C12" s="23"/>
       <c r="D12" s="25"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -3788,8 +3821,8 @@
       <c r="C13" s="23"/>
       <c r="D13" s="25"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -3812,10 +3845,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="5" t="s">
         <v>44</v>
       </c>
@@ -3836,8 +3869,8 @@
       <c r="C15" s="2"/>
       <c r="D15" s="9"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -3854,8 +3887,8 @@
       <c r="C16" s="23"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -3868,53 +3901,53 @@
       <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="50" t="s">
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="52"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3950,10 +3983,10 @@
       <c r="E19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="30" t="s">
         <v>63</v>
       </c>
@@ -3988,10 +4021,10 @@
       <c r="E20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="31" t="s">
         <v>63</v>
       </c>
@@ -4026,10 +4059,10 @@
       <c r="E21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="67"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="31" t="s">
         <v>63</v>
       </c>
@@ -4068,10 +4101,10 @@
       <c r="E22" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="67"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="17" t="s">
         <v>47</v>
       </c>
@@ -4102,8 +4135,8 @@
       <c r="C23" s="23"/>
       <c r="D23" s="25"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -4120,8 +4153,8 @@
       <c r="C24" s="23"/>
       <c r="D24" s="25"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -4138,8 +4171,8 @@
       <c r="C25" s="23"/>
       <c r="D25" s="25"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -4162,10 +4195,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="40"/>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="5" t="s">
         <v>69</v>
       </c>
@@ -4188,8 +4221,8 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
@@ -4202,53 +4235,53 @@
       <c r="Q27" s="40"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="48" t="s">
+      <c r="G29" s="52"/>
+      <c r="H29" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="50" t="s">
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="52"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="3" t="s">
         <v>17</v>
       </c>
@@ -4284,8 +4317,8 @@
       <c r="E31" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
       <c r="H31" s="31" t="s">
         <v>75</v>
       </c>
@@ -4320,10 +4353,10 @@
       <c r="E32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="47"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="31" t="s">
         <v>75</v>
       </c>
@@ -4360,10 +4393,10 @@
         <v>76</v>
       </c>
       <c r="E33" s="34"/>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="31" t="s">
         <v>75</v>
       </c>
@@ -4389,31 +4422,20 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:G30"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F2:G2"/>
@@ -4428,20 +4450,31 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4451,20 +4484,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B6B31C-02E9-4741-AF18-9BF80D64A4B1}">
-  <dimension ref="B3:K156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B6B31C-02E9-4741-AF18-9BF80D64A4B1}">
+  <dimension ref="B3:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U122" sqref="U122"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V161" sqref="V161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:3" ht="18.75">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="70"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="19"/>
@@ -4490,10 +4523,10 @@
       </c>
     </row>
     <row r="64" spans="2:3" ht="18.75">
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="68"/>
+      <c r="C64" s="69"/>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="37" t="s">
@@ -4516,33 +4549,34 @@
       </c>
     </row>
     <row r="122" spans="2:11" ht="18.75">
-      <c r="B122" s="69" t="s">
+      <c r="B122" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C122" s="69"/>
-      <c r="E122" s="70" t="s">
+      <c r="C122" s="70"/>
+      <c r="E122" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
     </row>
     <row r="126" spans="2:11" ht="15">
-      <c r="B126" s="72" t="s">
+      <c r="B126" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K126" s="72" t="s">
+      <c r="K126" s="44" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="141" spans="2:2" ht="15">
-      <c r="B141" s="72" t="s">
+      <c r="B141" s="44" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:16">
       <c r="B156" s="19"/>
     </row>
+    <row r="160" spans="2:16"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B64:C64"/>
@@ -4552,6 +4586,8 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>